--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T14:25:39+00:00</t>
+    <t>2025-08-18T14:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T14:43:32+00:00</t>
+    <t>2025-08-19T08:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T08:24:40+00:00</t>
+    <t>2025-08-21T08:22:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:22:26+00:00</t>
+    <t>2025-08-22T13:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:34:08+00:00</t>
+    <t>2025-08-22T13:38:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:38:23+00:00</t>
+    <t>2025-09-12T07:57:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -748,7 +748,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -845,7 +845,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1030,7 +1030,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1054,7 +1054,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1119,7 +1119,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1145,7 +1145,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1230,7 +1230,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1255,7 +1255,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1419,7 +1419,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1454,7 +1454,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1485,7 +1485,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1507,7 +1507,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1564,7 +1564,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1589,7 +1589,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1634,7 +1634,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1655,7 +1655,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1676,7 +1676,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1712,7 +1712,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1748,7 +1748,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1841,7 +1841,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -2198,7 +2198,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T07:57:25+00:00</t>
+    <t>2025-09-16T06:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T06:50:02+00:00</t>
+    <t>2025-09-16T07:54:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T07:54:55+00:00</t>
+    <t>2025-09-16T13:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:04:41+00:00</t>
+    <t>2025-09-17T15:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
